--- a/v0.7/StructureDefinition-PractitionerRole.xlsx
+++ b/v0.7/StructureDefinition-PractitionerRole.xlsx
@@ -1168,7 +1168,7 @@
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="85.47265625" customWidth="true" bestFit="true"/>
@@ -1197,7 +1197,7 @@
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="91.03515625" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="74.6953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="74.71875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="185.46484375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>

--- a/v0.7/StructureDefinition-PractitionerRole.xlsx
+++ b/v0.7/StructureDefinition-PractitionerRole.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/HCXPractitionerRole</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/StructureDefinition-PractitionerRole.html</t>
   </si>
   <si>
     <t>Version</t>
